--- a/Dimensions_Lid/lid_dimensions.xlsx
+++ b/Dimensions_Lid/lid_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Dimensions_Lid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/ASE6002PEK-main/ASE6002PEK-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73CB7535-7331-4DE7-9417-E46B42E93965}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52ECD523-CE80-436B-804C-CD6220E28685}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f>3.14*5*5</f>
+        <f>3.14*radius_lid^2</f>
         <v>78.5</v>
       </c>
       <c r="C5" t="s">

--- a/Dimensions_Lid/lid_dimensions.xlsx
+++ b/Dimensions_Lid/lid_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE6002 TA2 Model 1.1.1/ASE6002PEK-Cost-Modeling-1-28/Dimensions_Lid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Dimensions_Lid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0C2F898-795C-40A2-923A-B48FB74E7F77}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C6AB353-A407-4FAA-8CD7-EBFFD36B008E}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
   <definedNames>
     <definedName name="area_lid">Sheet1!$B$5</definedName>
     <definedName name="cost_lid">Sheet1!$B$7</definedName>
+    <definedName name="diameter_lid_cm">Sheet1!$B$4</definedName>
     <definedName name="hdpe_cost_per_g">Sheet1!$B$8</definedName>
     <definedName name="hdpe_density">Sheet1!$B$6</definedName>
-    <definedName name="radius_lid">Sheet1!$B$4</definedName>
     <definedName name="thickness_lid">Sheet1!$B$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Lid Dimensions</t>
   </si>
@@ -64,9 +64,6 @@
     <t>hdpe_density</t>
   </si>
   <si>
-    <t>radius_lid</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>cost_lid</t>
+  </si>
+  <si>
+    <t>diameter_lid_cm</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -495,8 +495,8 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>3.14*radius_lid*radius_lid</f>
-        <v>78.5</v>
+        <f>3.14*(diameter_lid_cm^2) * 0.25</f>
+        <v>706.5</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -510,27 +510,30 @@
         <v>0.97</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <f>3.14*radius_lid*radius_lid*thickness_lid*hdpe_density*hdpe_cost_per_g</f>
-        <v>7.6144999999999996</v>
+        <f>(PI()*(diameter_lid_cm^2)*0.25)*thickness_lid*hdpe_density*hdpe_cost_per_g</f>
+        <v>6.8565259664597242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0.05</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Dimensions_Lid/lid_dimensions.xlsx
+++ b/Dimensions_Lid/lid_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Dimensions_Lid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Dimensions_Lid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C6AB353-A407-4FAA-8CD7-EBFFD36B008E}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A0C8CDB-70EE-4061-B272-04A177F3CDA6}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
+    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Dimensions_Lid/lid_dimensions.xlsx
+++ b/Dimensions_Lid/lid_dimensions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Dimensions_Lid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A0C8CDB-70EE-4061-B272-04A177F3CDA6}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{633E4215-8537-4526-9BF5-59581CE253A7}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Dimensions_Lid/lid_dimensions.xlsx
+++ b/Dimensions_Lid/lid_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Dimensions_Lid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Dimensions_Lid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{633E4215-8537-4526-9BF5-59581CE253A7}"/>
+  <xr:revisionPtr revIDLastSave="1141" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A38890DF-DBFB-4E71-8F38-26C552AAD74D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
+    <workbookView xWindow="450" yWindow="2520" windowWidth="38700" windowHeight="15345" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -519,7 +515,7 @@
       </c>
       <c r="B7">
         <f>(PI()*(diameter_lid_cm^2)*0.25)*thickness_lid*hdpe_density*hdpe_cost_per_g</f>
-        <v>6.8565259664597242</v>
+        <v>12.341746739627503</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
